--- a/BangKeHoach-TLCN.xlsx
+++ b/BangKeHoach-TLCN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daole\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daole\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -707,11 +707,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,6 +722,11 @@
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,10 +1105,10 @@
   <dimension ref="A1:Y1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1123,18 +1123,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1248,10 +1248,10 @@
       <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="57" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="11"/>
@@ -1289,10 +1289,10 @@
       <c r="H5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="57" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="11"/>
@@ -1388,10 +1388,10 @@
       <c r="H8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="58" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="11"/>
@@ -1429,10 +1429,12 @@
       <c r="H9" s="35">
         <v>43744</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="58" t="s">
+        <v>56</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -1466,10 +1468,12 @@
       <c r="H10" s="35">
         <v>43744</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="58" t="s">
+        <v>56</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -1536,7 +1540,7 @@
       <c r="H12" s="35">
         <v>43744</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="36"/>
@@ -1575,7 +1579,7 @@
       <c r="H13" s="35">
         <v>43744</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="36"/>
@@ -1614,7 +1618,7 @@
       <c r="H14" s="35">
         <v>43744</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="36"/>
@@ -1653,10 +1657,10 @@
       <c r="H15" s="35">
         <v>43744</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="58" t="s">
         <v>56</v>
       </c>
       <c r="K15" s="11"/>
@@ -1694,7 +1698,7 @@
       <c r="H16" s="35">
         <v>43744</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J16" s="36"/>
@@ -1733,7 +1737,7 @@
       <c r="H17" s="35">
         <v>43744</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="36"/>
@@ -1772,7 +1776,7 @@
       <c r="H18" s="35">
         <v>43744</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J18" s="36"/>
@@ -1809,7 +1813,7 @@
       <c r="H19" s="35">
         <v>43744</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="60" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="11"/>
@@ -2100,10 +2104,10 @@
       <c r="H27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="58" t="s">
         <v>32</v>
       </c>
       <c r="K27" s="29"/>
@@ -2294,13 +2298,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="32"/>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="56" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="39">
         <v>43780</v>
       </c>
-      <c r="I33" s="63" t="s">
+      <c r="I33" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J33" s="39"/>
